--- a/test/fixtures/files/연락처.xlsx
+++ b/test/fixtures/files/연락처.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>표 1</t>
   </si>
@@ -36,7 +36,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color indexed="15"/>
         <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
       </rPr>
       <t>onesup.lee@gmail.com</t>
@@ -49,43 +49,100 @@
     <t>010-9999-6978</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>onesup1.lee@gmail.com</t>
+    </r>
+  </si>
+  <si>
     <t>박종윤</t>
   </si>
   <si>
     <t>010-9999-5801</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>onesup2.lee@gmail.com</t>
+    </r>
+  </si>
+  <si>
     <t>정훈</t>
   </si>
   <si>
     <t>010-9999-7596</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>onesup3.lee@gmail.com</t>
+    </r>
+  </si>
+  <si>
     <t>황재균</t>
   </si>
   <si>
     <t>010-9999-1525</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>onesup4.lee@gmail.com</t>
+    </r>
+  </si>
+  <si>
     <t>오승택</t>
   </si>
   <si>
     <t>010-9999-7957</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>onesup5.lee@gmail.com</t>
+    </r>
+  </si>
+  <si>
     <t>손아섭</t>
   </si>
   <si>
     <t>010-9999-0642</t>
   </si>
   <si>
-    <t>이우민</t>
-  </si>
-  <si>
-    <t>010-9999-9612</t>
-  </si>
-  <si>
-    <t>아두치</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>onesup6.lee@gmail.com</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -124,7 +181,7 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color indexed="15"/>
       <name val="Apple SD 산돌고딕 Neo 일반체"/>
     </font>
   </fonts>
@@ -149,7 +206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -518,7 +575,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -553,6 +610,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
@@ -1655,8 +1713,8 @@
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="19.6016" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.0547" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5781" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6016" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.6016" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.6016" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.6016" style="1" customWidth="1"/>
@@ -1713,7 +1771,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s" s="15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1722,13 +1780,13 @@
     </row>
     <row r="5" ht="33" customHeight="1">
       <c r="A5" t="s" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1737,13 +1795,13 @@
     </row>
     <row r="6" ht="33" customHeight="1">
       <c r="A6" t="s" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="15">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1752,13 +1810,13 @@
     </row>
     <row r="7" ht="33" customHeight="1">
       <c r="A7" t="s" s="13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="15">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -1767,13 +1825,13 @@
     </row>
     <row r="8" ht="33" customHeight="1">
       <c r="A8" t="s" s="13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s" s="17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s" s="15">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1782,13 +1840,13 @@
     </row>
     <row r="9" ht="33" customHeight="1">
       <c r="A9" t="s" s="13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s" s="17">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="15">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1796,30 +1854,18 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" ht="33" customHeight="1">
-      <c r="A10" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s" s="17">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s" s="15">
-        <v>6</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" ht="33" customHeight="1">
-      <c r="A11" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s" s="15">
-        <v>6</v>
-      </c>
+      <c r="A11" s="18"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -1945,8 +1991,6 @@
     <hyperlink ref="C7" r:id="rId5" location="" tooltip="" display=""/>
     <hyperlink ref="C8" r:id="rId6" location="" tooltip="" display=""/>
     <hyperlink ref="C9" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="C10" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="C11" r:id="rId9" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
